--- a/DMSNewVSale_2025-11-21_16-14.xlsx
+++ b/DMSNewVSale_2025-11-21_16-14.xlsx
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -1448,7 +1457,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1458,11 +1467,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1474,14 +1483,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1491,11 +1500,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1507,28 +1516,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1540,14 +1549,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1557,11 +1566,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1573,14 +1582,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1590,11 +1599,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1613,7 +1622,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1623,11 +1632,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1639,14 +1648,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,7 +1688,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1689,14 +1698,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1705,14 +1714,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,7 +1754,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1755,14 +1764,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1771,14 +1780,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1788,11 +1797,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1804,14 +1813,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1821,14 +1830,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1837,14 +1846,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1854,11 +1863,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1870,14 +1879,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1887,51 +1896,84 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="35" ht="25.5" customHeight="1">
-      <c r="N35" s="13">
-        <v>1807.8699999999999</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>108</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>45</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>109</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="26.25" customHeight="1">
+      <c r="N36" s="13">
+        <v>1916.8699999999999</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2080,10 +2122,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
